--- a/viaje a mardel..xlsx
+++ b/viaje a mardel..xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="45" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="45" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>en tour de viaje</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>parcial</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>asssa</t>
   </si>
 </sst>
 </file>
@@ -62,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -140,22 +146,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -460,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -641,13 +647,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
